--- a/data/long_razon/P37-Edad-long_razon.xlsx
+++ b/data/long_razon/P37-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>65,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>65,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 93,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-42,07; 55,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,79; 169,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,04; 167,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 90,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 71,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 142,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,56; 38,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 64,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 58,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 85,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,24; 31,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-30,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-54,91; 6,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 53,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 91,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 58,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 32,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 44,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 67,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 57,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 89,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 53,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 58,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 42,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-21,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>65,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-47,22; 16,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,43; 144,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 122,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 28,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 37,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 51,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>192,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-22,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-15,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>76,98; 436,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 42,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,51; 27,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,92; 8,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,98; 96,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,22; 10,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 48,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 25,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,08; 44,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 25,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,96; 38,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 19,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P37-Edad-long_razon.xlsx
+++ b/data/long_razon/P37-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.4063158073922583</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.004161353624770475</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1282569291580508</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1786114411062233</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.7380888146920391</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.5758336709940726</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.08003621167353543</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.07878323170384752</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.5392511838610661</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.2364630378811134</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1026877790728433</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.1274734028162926</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.1115798832987376</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3809050753111662</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5585890357228089</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3992162480367378</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.1008754112524515</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.07563334601998385</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3940100311119639</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.4112902783713213</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.1025817355688329</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.1037495889240522</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3973810991922559</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.2766232959111256</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.303162969777702</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.6667396404406133</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.6417761877707473</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.458371841352911</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.749059020042498</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.425760078944793</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.4411270869965169</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.8724645621503148</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.065657574778831</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.7469500603441345</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.3037426218980163</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.7784873258217849</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.3852479560032045</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.111990725676249</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.982060533368733</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.3526048958021702</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.04883606685927626</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1450771225437482</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.6246755013575531</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.06689292841219159</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.2150201960009364</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.01190196536889509</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.7796745232715053</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.1504938745769618</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.2076840331323263</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4651972996898563</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.090108336387037</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.8538727738470908</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3028777892179692</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2052775519415672</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.04268501675998158</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3691776057656156</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.1457348374459541</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.2568611754179566</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.1728380779228265</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.5632642249634405</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>1.432864061657705</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.5303322059363952</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.174676875024879</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.9371405331755867</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5906331178776086</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.6284977664642156</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.488034530761032</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.7357717605431375</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.6754862934478341</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.3368115457789053</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.861217005958947</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.4181151185369659</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.3606382304753002</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1029030771265092</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1746710276730989</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.3052654229982421</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.3604546871826241</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.1996938554696386</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.223213771858274</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1464574536919672</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.0461930324560814</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.1517113724133302</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.1998487935120077</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.09192335512387907</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.633628694953756</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2788290072355391</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2087099792928921</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.6015333597230756</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.005245882089541284</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.09827317750738698</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.09597807144299908</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2335481783565608</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.3159602353439667</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.07477580063477861</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.1007161420618979</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.321919317117601</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.01653064436883647</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.6516754340008508</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.9372395045196485</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.1521683587281214</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.9334865961328749</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.6019767267151529</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.6960097591684115</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.6846800150482193</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.2452026417311106</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.4861964282233822</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.5483030394524182</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.2484149825149535</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.2042577549460355</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1508785687075352</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.09146988152013973</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6399105394697761</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2799299971144573</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2282062016302628</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.01071171462008807</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.2408071378441267</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.2421425768763039</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.1928627362897057</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.04595629238412428</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.4539930883929154</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.1943159855218431</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1725103637816496</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3934950426619255</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.02211935374639426</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.06837138501313407</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.0656865333145437</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2913464474797344</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2289701953022237</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.04929034687583819</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.04035220268092166</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.2770826357926008</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.03062742644410282</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.8140585017690392</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.654686903000835</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.5156349842636356</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.670696335293028</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.8773381678688321</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.6248882121416619</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.4453358048085336</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1.090449465283635</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.6139247084340179</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.4569448886237039</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.2681129345575836</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.146799417564004</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.219591562896479</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.6085853710508479</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.1895490905245421</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.1342725836751588</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.3330844523148673</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.0146106699392658</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.2473401316352851</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.1271725737372487</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.003363844321169499</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.2280745628178394</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.02548922625100384</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.130580379984635</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.4848354467034379</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.107062145611101</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.4895430872903897</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.3243073738479573</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.1293060026921188</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.2931220529362017</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.1786023307365111</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.2518331203369602</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.2307278405516258</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.03831948861624802</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.2621426008973917</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.2138858699435254</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.128987863401903</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.32660509638115</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.1960001470983621</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.0050090485767</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.9232763101389353</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.3115656612103886</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.9092371735189759</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.8557231119942071</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.3539436599911599</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.5326345971308459</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.3549519606239188</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.5773442403790451</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>1.917169895905371</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.0358463165753975</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.2490814798434892</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-0.2536329566212846</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.0510281960072047</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.2746137722336528</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>-0.1988532618256369</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.2826818413898201</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.4416286124666179</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>-0.1789781895282551</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.03491388758959296</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.02954835676420951</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>0.816502800768187</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.3734796875426759</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.3156531374286107</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.6193189452106753</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.3400219236182797</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.4881239842185566</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.5117859605297774</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.306476359764779</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>0.08767279410918177</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.3631055584546296</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.3447288920002751</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.3643916006735187</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>4.353167492532665</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.439351639875679</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>1.197370429582902</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.3365923242539329</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.3464117058001863</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.01067270989060746</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.3126192235158427</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>1.549565932867031</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>1.045312763243766</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.09214730031958523</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.3778965921269616</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.6019479726740854</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.2125026256977368</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0850092722523076</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.09675121168503947</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.0353138602028296</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2277714432837655</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.09264726027667378</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.09453691379844865</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.163174757441189</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.2201950621206736</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.08904865118697529</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.0955788564985947</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.06321503025402035</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.01835009156820099</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.1001373270323065</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.132228529631563</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.2570764241919742</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.0487092992792256</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.04522647389101907</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.07602925146146131</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.07796160397467532</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.08314752790892328</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.01980612435340189</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.03821267641744329</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.1070307516593548</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.4632231617065793</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3086347338205791</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3976000738565436</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2619570695198639</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4290397521389165</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.2352598097119114</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.3071216754268799</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.425807427464132</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.3830735244795262</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.2209824410642126</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.2533614145024519</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.2728992535935403</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
